--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,9 +85,6 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Efna5</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.1261995</v>
+      </c>
+      <c r="H2">
+        <v>0.252399</v>
+      </c>
+      <c r="I2">
+        <v>0.07923641825693001</v>
+      </c>
+      <c r="J2">
+        <v>0.06507622895681928</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.386502</v>
-      </c>
-      <c r="H2">
-        <v>0.773004</v>
-      </c>
-      <c r="I2">
-        <v>0.2023774294220003</v>
-      </c>
-      <c r="J2">
-        <v>0.1704859662986497</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>1.191230341828</v>
+        <v>0.00922259636025</v>
       </c>
       <c r="R2">
-        <v>7.147382050967999</v>
+        <v>0.036890385441</v>
       </c>
       <c r="S2">
-        <v>0.1664409647061225</v>
+        <v>0.001516849640372041</v>
       </c>
       <c r="T2">
-        <v>0.1479812566060189</v>
+        <v>0.0008858134228328322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H3">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I3">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J3">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.006982029796000002</v>
+        <v>0.3889570390929999</v>
       </c>
       <c r="R3">
-        <v>0.04189217877600001</v>
+        <v>2.333742234558</v>
       </c>
       <c r="S3">
-        <v>0.0009755424572797906</v>
+        <v>0.06397215294071462</v>
       </c>
       <c r="T3">
-        <v>0.0008673465631233306</v>
+        <v>0.05603791264554827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H4">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I4">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J4">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>0.228119664432</v>
+        <v>0.0009019898929999999</v>
       </c>
       <c r="R4">
-        <v>0.912478657728</v>
+        <v>0.005411939358</v>
       </c>
       <c r="S4">
-        <v>0.03187331256038577</v>
+        <v>0.0001483511791444354</v>
       </c>
       <c r="T4">
-        <v>0.01889219541279107</v>
+        <v>0.0001299517061035009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H5">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I5">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J5">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>0.02209825185</v>
+        <v>0.08099830958625</v>
       </c>
       <c r="R5">
-        <v>0.1325895111</v>
+        <v>0.323993238345</v>
       </c>
       <c r="S5">
-        <v>0.003087609698212275</v>
+        <v>0.01332187292682471</v>
       </c>
       <c r="T5">
-        <v>0.002745167716716412</v>
+        <v>0.007779738704332124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.6931216666666665</v>
+        <v>0.1261995</v>
       </c>
       <c r="H6">
-        <v>2.079365</v>
+        <v>0.252399</v>
       </c>
       <c r="I6">
-        <v>0.3629274393837355</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J6">
-        <v>0.4586037734767113</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>2.13625688848111</v>
+        <v>0.001685352256</v>
       </c>
       <c r="R6">
-        <v>19.22631199632999</v>
+        <v>0.010112113536</v>
       </c>
       <c r="S6">
-        <v>0.298481867774851</v>
+        <v>0.000277191569874203</v>
       </c>
       <c r="T6">
-        <v>0.398066563229394</v>
+        <v>0.0002428124780025492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
         <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J7">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.01252101186777778</v>
+        <v>0.05065298483916668</v>
       </c>
       <c r="R7">
-        <v>0.11268910681</v>
+        <v>0.303917909035</v>
       </c>
       <c r="S7">
-        <v>0.001749459547153349</v>
+        <v>0.008330947038755332</v>
       </c>
       <c r="T7">
-        <v>0.00233314457134626</v>
+        <v>0.007297689087392549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
         <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J8">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>0.4090914976133332</v>
+        <v>2.136256888481111</v>
       </c>
       <c r="R8">
-        <v>2.454548985679999</v>
+        <v>19.22631199633</v>
       </c>
       <c r="S8">
-        <v>0.0571590406363801</v>
+        <v>0.3513523054094749</v>
       </c>
       <c r="T8">
-        <v>0.05081962048646358</v>
+        <v>0.4616629789666776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,170 +974,170 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
         <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J9">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.03962923129166666</v>
+        <v>0.004953971592222222</v>
       </c>
       <c r="R9">
-        <v>0.3566630816249999</v>
+        <v>0.04458574433</v>
       </c>
       <c r="S9">
-        <v>0.005537071425351112</v>
+        <v>0.0008147846587391895</v>
       </c>
       <c r="T9">
-        <v>0.007384445189507457</v>
+        <v>0.001070594690794758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.079365</v>
+      </c>
+      <c r="I10">
+        <v>0.4351877644756155</v>
+      </c>
+      <c r="J10">
+        <v>0.5361242826825642</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8088005</v>
-      </c>
-      <c r="H10">
-        <v>1.617601</v>
-      </c>
-      <c r="I10">
-        <v>0.4234983676804482</v>
-      </c>
-      <c r="J10">
-        <v>0.3567617626437407</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>2.492788384240333</v>
+        <v>0.4448645465125001</v>
       </c>
       <c r="R10">
-        <v>14.956730305442</v>
+        <v>2.669187279075</v>
       </c>
       <c r="S10">
-        <v>0.3482971251760514</v>
+        <v>0.07316731655959245</v>
       </c>
       <c r="T10">
-        <v>0.3096680336287429</v>
+        <v>0.06409263258148237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.079365</v>
+      </c>
+      <c r="I11">
+        <v>0.4351877644756155</v>
+      </c>
+      <c r="J11">
+        <v>0.5361242826825642</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.8088005</v>
-      </c>
-      <c r="H11">
-        <v>1.617601</v>
-      </c>
-      <c r="I11">
-        <v>0.4234983676804482</v>
-      </c>
-      <c r="J11">
-        <v>0.3567617626437407</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.01461071143233334</v>
+        <v>0.00925640881777778</v>
       </c>
       <c r="R11">
-        <v>0.08766426859400002</v>
+        <v>0.08330767936000001</v>
       </c>
       <c r="S11">
-        <v>0.002041436337248251</v>
+        <v>0.001522410809053581</v>
       </c>
       <c r="T11">
-        <v>0.001815023813401823</v>
+        <v>0.002000387356216826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H12">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I12">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J12">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>0.477366995908</v>
+        <v>0.05651782177275</v>
       </c>
       <c r="R12">
-        <v>1.909467983632</v>
+        <v>0.226071287091</v>
       </c>
       <c r="S12">
-        <v>0.06669862286740118</v>
+        <v>0.009295542630500971</v>
       </c>
       <c r="T12">
-        <v>0.03953412167585969</v>
+        <v>0.00542843286206863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,294 +1222,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H13">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I13">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J13">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.0462431685875</v>
+        <v>2.383602594542999</v>
       </c>
       <c r="R13">
-        <v>0.277459011525</v>
+        <v>14.301615567258</v>
       </c>
       <c r="S13">
-        <v>0.006461183299747317</v>
+        <v>0.3920335008811343</v>
       </c>
       <c r="T13">
-        <v>0.0057445835257362</v>
+        <v>0.3434109697209147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7733745</v>
+      </c>
+      <c r="H14">
+        <v>1.546749</v>
+      </c>
+      <c r="I14">
+        <v>0.4855758172674545</v>
+      </c>
+      <c r="J14">
+        <v>0.3987994883606166</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.064151</v>
-      </c>
-      <c r="I14">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J14">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>0.06590618561577777</v>
+        <v>0.005527565342999999</v>
       </c>
       <c r="R14">
-        <v>0.5931556705419999</v>
+        <v>0.033165392058</v>
       </c>
       <c r="S14">
-        <v>0.009208537365794108</v>
+        <v>0.0009091241961754063</v>
       </c>
       <c r="T14">
-        <v>0.01228084924855851</v>
+        <v>0.0007963687315079849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02138366666666667</v>
+        <v>0.7733745</v>
       </c>
       <c r="H15">
-        <v>0.064151</v>
+        <v>1.546749</v>
       </c>
       <c r="I15">
-        <v>0.01119676351381601</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J15">
-        <v>0.01414849758089826</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.0003862888104444445</v>
+        <v>0.49637302189875</v>
       </c>
       <c r="R15">
-        <v>0.003476599294</v>
+        <v>1.985492087595</v>
       </c>
       <c r="S15">
-        <v>5.397300589816339E-05</v>
+        <v>0.08163896698359815</v>
       </c>
       <c r="T15">
-        <v>7.19804158463925E-05</v>
+        <v>0.04767571607330857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02138366666666667</v>
+        <v>0.7733745</v>
       </c>
       <c r="H16">
-        <v>0.064151</v>
+        <v>1.546749</v>
       </c>
       <c r="I16">
-        <v>0.01119676351381601</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J16">
-        <v>0.01414849758089826</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>0.01262098220533333</v>
+        <v>0.010328158656</v>
       </c>
       <c r="R16">
-        <v>0.07572589323199999</v>
+        <v>0.061968951936</v>
       </c>
       <c r="S16">
-        <v>0.001763427592493102</v>
+        <v>0.001698682576045681</v>
       </c>
       <c r="T16">
-        <v>0.001567848585422533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.064151</v>
-      </c>
-      <c r="I17">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J17">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.057175</v>
-      </c>
-      <c r="N17">
-        <v>0.171525</v>
-      </c>
-      <c r="O17">
-        <v>0.01525668997294134</v>
-      </c>
-      <c r="P17">
-        <v>0.0161020157630309</v>
-      </c>
-      <c r="Q17">
-        <v>0.001222611141666666</v>
-      </c>
-      <c r="R17">
-        <v>0.011003500275</v>
-      </c>
-      <c r="S17">
-        <v>0.000170825549630632</v>
-      </c>
-      <c r="T17">
-        <v>0.0002278193310708283</v>
+        <v>0.001488000972816711</v>
       </c>
     </row>
   </sheetData>
